--- a/biology/Botanique/Limonium_girardianum/Limonium_girardianum.xlsx
+++ b/biology/Botanique/Limonium_girardianum/Limonium_girardianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium girardianum, le Limonium de Girard, le Statice de Girard ou le Saladelle de Girard[2], est une espèce de plante de la famille des Plumbaginaceae et du genre Limonium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium girardianum, le Limonium de Girard, le Statice de Girard ou le Saladelle de Girard, est une espèce de plante de la famille des Plumbaginaceae et du genre Limonium.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium girardianum a de petites feuilles et de fines structures souterraines peu profondes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium girardianum a de petites feuilles et de fines structures souterraines peu profondes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limonium girardianum est présente dans les sols salés et sableux le long de la mer Méditerranée en France[2] et en Espagne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limonium girardianum est présente dans les sols salés et sableux le long de la mer Méditerranée en France et en Espagne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Staticobium latifoliae. La feuille a pour parasite Agdistis bennetii[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Staticobium latifoliae. La feuille a pour parasite Agdistis bennetii.
 </t>
         </is>
       </c>
